--- a/Altium Projects/Underwater ROV PDB/Underwater ROV/5V Regulator/Project Outputs for Underwater_ROV_PDB_17/Underwater_ROV_PDB_17.xlsx
+++ b/Altium Projects/Underwater ROV PDB/Underwater ROV/5V Regulator/Project Outputs for Underwater_ROV_PDB_17/Underwater_ROV_PDB_17.xlsx
@@ -3,6 +3,11 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorian Bruslind\Documents\GitHub\PersonalProjects\Altium Projects\Underwater ROV PDB\Underwater ROV\5V Regulator\Project Outputs for Underwater_ROV_PDB_17\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="10215" windowHeight="8880" xr2:uid="{C1FDD568-90D9-4F0C-B00D-B68C0FFF2A35}"/>
   </bookViews>
@@ -746,7 +751,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC7DEA62-9FAC-41AC-803B-20770461126D}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
